--- a/Code/Results/Cases/Case_2_233/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_233/res_line/pl_mw.xlsx
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938345521</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149814047</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515442</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278901602</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_233/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_233/res_line/pl_mw.xlsx
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3529483938345521</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4248636149814047</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186353</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515442</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210123</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6416283278901602</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
         <v>0</v>
